--- a/2023_hypoxAreaVol.xlsx
+++ b/2023_hypoxAreaVol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\projects\2023 Quick Facts\Quick-Facts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D553F40-B3AD-4CA8-9BEE-D2ABABC91C8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299AAC78-D977-4CC9-BBFE-DFDDB7C177A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{1708FD0F-97AD-4E6B-B4F8-4D421158413F}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +93,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -202,14 +208,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -227,6 +231,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,7 +553,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,22 +562,22 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -576,22 +585,22 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8">
+      <c r="B2" s="16">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19">
+        <v>0</v>
+      </c>
+      <c r="F2" s="19">
+        <v>0</v>
+      </c>
+      <c r="G2" s="18">
         <v>0</v>
       </c>
     </row>
@@ -599,22 +608,22 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="B3" s="16">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18">
         <v>0</v>
       </c>
     </row>
@@ -622,139 +631,115 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>220</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>1.76</v>
+      <c r="B4" s="16">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+      <c r="D4" s="18">
+        <v>205</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>416</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>11.2</v>
+      <c r="B5" s="19">
+        <v>48</v>
+      </c>
+      <c r="C5" s="19">
+        <v>114</v>
+      </c>
+      <c r="D5" s="20">
+        <v>615</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="18">
+        <v>2.9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
-        <v>104</v>
-      </c>
-      <c r="C6" s="7">
-        <v>200</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1104</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.51</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1.82</v>
-      </c>
-      <c r="G6" s="8">
-        <v>38.049999999999997</v>
+      <c r="B6" s="19">
+        <v>124</v>
+      </c>
+      <c r="C6" s="19">
+        <v>310</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1495</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="G6" s="18">
+        <v>15.7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>136</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1168</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1.22</v>
-      </c>
-      <c r="G7" s="8">
-        <v>37.6</v>
+      <c r="B7" s="19">
+        <v>36</v>
+      </c>
+      <c r="C7" s="19">
+        <v>315</v>
+      </c>
+      <c r="D7" s="20">
+        <v>1240</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="G7" s="18">
+        <v>9.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
-        <v>44</v>
-      </c>
-      <c r="C8" s="7">
-        <v>152</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1092</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0.54</v>
-      </c>
-      <c r="G8" s="8">
-        <v>32.29</v>
-      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
-        <v>100</v>
-      </c>
-      <c r="E9" s="13">
-        <v>0</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="14">
-        <v>1.7</v>
-      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
